--- a/correlation/correlation 5 and 6 - commons-net .xlsx
+++ b/correlation/correlation 5 and 6 - commons-net .xlsx
@@ -1,17 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Avinash\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6F2AD09-F896-4D92-AF95-15C7DE12ECA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>Sl.No</t>
   </si>
@@ -40,21 +57,31 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
@@ -64,11 +91,17 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
-    <border/>
+  <borders count="9">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -82,47 +115,1114 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="13">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{B4056103-8557-4A3D-A25E-11B12C6449EC}"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Metrics 6 vs Metric 5</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Metrics 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$14:$C$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.1136861176115347</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.61780997017469108</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.76504442473875478</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.17785538740137111</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.22556633261366932</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.42949176807444522</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$14:$D$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>78.12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>253.91</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>158.17000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>113.63</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80.31</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>89.52</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5A4B-45F2-B3F3-4F2C48DE7972}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="550953264"/>
+        <c:axId val="601451152"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="550953264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="601451152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="601451152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="550953264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7374A29B-C778-4D6B-AF86-9B92188B6460}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -312,199 +1412,252 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A2:G19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="5">
-      <c r="A5" s="1" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G2" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="B6" s="4" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="8">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="4">
-        <v>12.0</v>
-      </c>
-      <c r="D6" s="5">
-        <f t="shared" ref="D6:D11" si="1">78+(0.01*C6)</f>
+      <c r="C3" s="3">
+        <v>12</v>
+      </c>
+      <c r="D3" s="4">
+        <f t="shared" ref="D3:D8" si="0">78+(0.01*C3)</f>
         <v>78.12</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
+      <c r="E3" s="5">
+        <v>39741</v>
+      </c>
+      <c r="F3" s="5">
+        <v>84</v>
+      </c>
+      <c r="G3" s="5">
+        <v>2.1136861176115347</v>
+      </c>
     </row>
-    <row r="7">
-      <c r="A7" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="B7" s="4">
-        <v>2.2</v>
-      </c>
-      <c r="C7" s="4">
-        <v>17591.0</v>
-      </c>
-      <c r="D7" s="5">
-        <f t="shared" si="1"/>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C4" s="3">
+        <v>17591</v>
+      </c>
+      <c r="D4" s="4">
+        <f t="shared" si="0"/>
         <v>253.91</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
+      <c r="E4" s="5">
+        <v>46940</v>
+      </c>
+      <c r="F4" s="5">
+        <v>29</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0.61780997017469108</v>
+      </c>
     </row>
-    <row r="8">
-      <c r="A8" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="B8" s="4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3">
         <v>3.3</v>
       </c>
-      <c r="C8" s="4">
-        <v>8017.0</v>
-      </c>
-      <c r="D8" s="5">
-        <f t="shared" si="1"/>
-        <v>158.17</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="C5" s="3">
+        <v>8017</v>
+      </c>
+      <c r="D5" s="4">
+        <f t="shared" si="0"/>
+        <v>158.17000000000002</v>
+      </c>
+      <c r="E5" s="5">
+        <v>57513</v>
+      </c>
+      <c r="F5" s="5">
+        <v>44</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0.76504442473875478</v>
+      </c>
     </row>
-    <row r="9">
-      <c r="A9" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="B9" s="4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3">
         <v>3.4</v>
       </c>
-      <c r="C9" s="4">
-        <v>3563.0</v>
-      </c>
-      <c r="D9" s="5">
-        <f t="shared" si="1"/>
+      <c r="C6" s="3">
+        <v>3563</v>
+      </c>
+      <c r="D6" s="4">
+        <f t="shared" si="0"/>
         <v>113.63</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+      <c r="E6" s="5">
+        <v>61848</v>
+      </c>
+      <c r="F6" s="5">
+        <v>11</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0.17785538740137111</v>
+      </c>
     </row>
-    <row r="10">
-      <c r="A10" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="B10" s="4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3">
         <v>3.5</v>
       </c>
-      <c r="C10" s="4">
-        <v>231.0</v>
-      </c>
-      <c r="D10" s="5">
-        <f t="shared" si="1"/>
+      <c r="C7" s="3">
+        <v>231</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" si="0"/>
         <v>80.31</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+      <c r="E7" s="5">
+        <v>62066</v>
+      </c>
+      <c r="F7" s="5">
+        <v>14</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0.22556633261366932</v>
+      </c>
     </row>
-    <row r="11">
-      <c r="A11" s="3">
-        <v>6.0</v>
-      </c>
-      <c r="B11" s="4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3">
         <v>3.6</v>
       </c>
-      <c r="C11" s="4">
-        <v>1152.0</v>
-      </c>
-      <c r="D11" s="5">
-        <f t="shared" si="1"/>
+      <c r="C8" s="3">
+        <v>1152</v>
+      </c>
+      <c r="D8" s="4">
+        <f t="shared" si="0"/>
         <v>89.52</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+      <c r="E8" s="5">
+        <v>62865</v>
+      </c>
+      <c r="F8" s="5">
+        <v>27</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0.42949176807444522</v>
+      </c>
     </row>
-    <row r="12">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C13" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="13">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C14" s="11">
+        <v>2.1136861176115347</v>
+      </c>
+      <c r="D14" s="12">
+        <v>78.12</v>
+      </c>
     </row>
-    <row r="14">
-      <c r="A14" s="4"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C15" s="11">
+        <v>0.61780997017469108</v>
+      </c>
+      <c r="D15" s="12">
+        <v>253.91</v>
+      </c>
     </row>
-    <row r="15">
-      <c r="A15" s="4"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C16" s="11">
+        <v>0.76504442473875478</v>
+      </c>
+      <c r="D16" s="12">
+        <v>158.17000000000002</v>
+      </c>
     </row>
-    <row r="16">
-      <c r="A16" s="3"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
+    <row r="17" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C17" s="11">
+        <v>0.17785538740137111</v>
+      </c>
+      <c r="D17" s="12">
+        <v>113.63</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C18" s="11">
+        <v>0.22556633261366932</v>
+      </c>
+      <c r="D18" s="12">
+        <v>80.31</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C19" s="11">
+        <v>0.42949176807444522</v>
+      </c>
+      <c r="D19" s="12">
+        <v>89.52</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="A5"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>